--- a/experimentation.xlsx
+++ b/experimentation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10695" windowHeight="7035" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10695" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="2D packing" sheetId="1" r:id="rId1"/>
@@ -456,7 +456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I2" sqref="I1:L1048576"/>
     </sheetView>
   </sheetViews>
@@ -1171,7 +1171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
